--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H2">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I2">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J2">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N2">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q2">
-        <v>73.58005899724668</v>
+        <v>23.882132526208</v>
       </c>
       <c r="R2">
-        <v>662.2205309752201</v>
+        <v>214.939192735872</v>
       </c>
       <c r="S2">
-        <v>0.09970318781849657</v>
+        <v>0.03903784417129376</v>
       </c>
       <c r="T2">
-        <v>0.09970318781849657</v>
+        <v>0.03903784417129377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H3">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I3">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J3">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q3">
-        <v>254.1057701673027</v>
+        <v>224.131698789392</v>
       </c>
       <c r="R3">
-        <v>2286.951931505724</v>
+        <v>2017.185289104528</v>
       </c>
       <c r="S3">
-        <v>0.3443209433917732</v>
+        <v>0.3663667104093781</v>
       </c>
       <c r="T3">
-        <v>0.3443209433917732</v>
+        <v>0.3663667104093782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H4">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I4">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J4">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N4">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q4">
-        <v>86.61507015575867</v>
+        <v>76.39804008382401</v>
       </c>
       <c r="R4">
-        <v>779.535631401828</v>
+        <v>687.5823607544161</v>
       </c>
       <c r="S4">
-        <v>0.1173660190728443</v>
+        <v>0.1248805893071612</v>
       </c>
       <c r="T4">
-        <v>0.1173660190728443</v>
+        <v>0.1248805893071612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N5">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O5">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P5">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q5">
-        <v>42.24471838875667</v>
+        <v>15.54521152160533</v>
       </c>
       <c r="R5">
-        <v>380.20246549881</v>
+        <v>139.906903694448</v>
       </c>
       <c r="S5">
-        <v>0.05724286103129259</v>
+        <v>0.0254102745776273</v>
       </c>
       <c r="T5">
-        <v>0.0572428610312926</v>
+        <v>0.02541027457762731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q6">
         <v>145.8904334675447</v>
@@ -818,10 +818,10 @@
         <v>1313.013901207902</v>
       </c>
       <c r="S6">
-        <v>0.1976859150042375</v>
+        <v>0.2384731766117872</v>
       </c>
       <c r="T6">
-        <v>0.1976859150042375</v>
+        <v>0.2384731766117872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N7">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q7">
         <v>49.72854461953266</v>
       </c>
       <c r="R7">
-        <v>447.5569015757939</v>
+        <v>447.556901575794</v>
       </c>
       <c r="S7">
-        <v>0.06738367013713975</v>
+        <v>0.08128650879866729</v>
       </c>
       <c r="T7">
-        <v>0.06738367013713975</v>
+        <v>0.08128650879866729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N8">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O8">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P8">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q8">
-        <v>15.24282143121778</v>
+        <v>5.609053447907556</v>
       </c>
       <c r="R8">
-        <v>137.18539288096</v>
+        <v>50.481481031168</v>
       </c>
       <c r="S8">
-        <v>0.02065448042243863</v>
+        <v>0.009168584681773409</v>
       </c>
       <c r="T8">
-        <v>0.02065448042243863</v>
+        <v>0.009168584681773409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q9">
         <v>52.64046987849245</v>
@@ -1004,10 +1004,10 @@
         <v>473.764228906432</v>
       </c>
       <c r="S9">
-        <v>0.07132941623960422</v>
+        <v>0.08604635528109428</v>
       </c>
       <c r="T9">
-        <v>0.07132941623960422</v>
+        <v>0.08604635528109429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N10">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q10">
         <v>17.94315016363378</v>
@@ -1066,10 +1066,10 @@
         <v>161.488351472704</v>
       </c>
       <c r="S10">
-        <v>0.02431350688217318</v>
+        <v>0.02932995616121719</v>
       </c>
       <c r="T10">
-        <v>0.02431350688217318</v>
+        <v>0.02932995616121718</v>
       </c>
     </row>
   </sheetData>
